--- a/biology/Zoologie/L'Apocalypse_des_animaux_(série_documentaire)/L'Apocalypse_des_animaux_(série_documentaire).xlsx
+++ b/biology/Zoologie/L'Apocalypse_des_animaux_(série_documentaire)/L'Apocalypse_des_animaux_(série_documentaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Apocalypse_des_animaux_(s%C3%A9rie_documentaire)</t>
+          <t>L'Apocalypse_des_animaux_(série_documentaire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Apocalypse des animaux est une série documentaire de Frédéric Rossif en six parties, diffusée en France au début des années 1970. C'est la première collaboration entre le cinéaste Frédéric Rossif et le compositeur musicien grec Vangelis. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Apocalypse_des_animaux_(s%C3%A9rie_documentaire)</t>
+          <t>L'Apocalypse_des_animaux_(série_documentaire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des épisodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chacune des six parties a une durée de 50 minutes :
 De l'abeille au gorille
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Apocalypse_des_animaux_(s%C3%A9rie_documentaire)</t>
+          <t>L'Apocalypse_des_animaux_(série_documentaire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Apocalypse des animaux
 Réalisation : Frédéric Rossif
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Apocalypse_des_animaux_(s%C3%A9rie_documentaire)</t>
+          <t>L'Apocalypse_des_animaux_(série_documentaire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Exploitation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La série est éditée en VHS en 1990.
 </t>
